--- a/Code/Results/Cases/Case_0_214/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_214/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04649686527946528</v>
+        <v>0.02406506557682775</v>
       </c>
       <c r="D2">
-        <v>0.1759192233114817</v>
+        <v>0.1668829158416827</v>
       </c>
       <c r="E2">
-        <v>0.1647883531330692</v>
+        <v>0.1607398286185102</v>
       </c>
       <c r="F2">
-        <v>0.9442471654626843</v>
+        <v>1.636872026552723</v>
       </c>
       <c r="G2">
-        <v>0.6159899372379556</v>
+        <v>1.002614734140138</v>
       </c>
       <c r="H2">
-        <v>0.4256129060701141</v>
+        <v>1.0185464478825</v>
       </c>
       <c r="I2">
-        <v>0.5188549690715547</v>
+        <v>0.8687822641251515</v>
       </c>
       <c r="J2">
-        <v>0.1942137762107876</v>
+        <v>0.1928632368882006</v>
       </c>
       <c r="K2">
-        <v>5.218490325783989</v>
+        <v>2.054569687855121</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04172501300175213</v>
+        <v>0.02244693183169488</v>
       </c>
       <c r="D3">
-        <v>0.1552642869478689</v>
+        <v>0.1612439996455777</v>
       </c>
       <c r="E3">
-        <v>0.1463460195272717</v>
+        <v>0.1566321673715727</v>
       </c>
       <c r="F3">
-        <v>0.8907394298723688</v>
+        <v>1.644518109295433</v>
       </c>
       <c r="G3">
-        <v>0.5807193945803704</v>
+        <v>1.010280372564281</v>
       </c>
       <c r="H3">
-        <v>0.4205351705456621</v>
+        <v>1.0295335993668</v>
       </c>
       <c r="I3">
-        <v>0.4891790411353725</v>
+        <v>0.8739126022889891</v>
       </c>
       <c r="J3">
-        <v>0.1731390812874736</v>
+        <v>0.1889610989209913</v>
       </c>
       <c r="K3">
-        <v>4.528429094579849</v>
+        <v>1.84682674065283</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03880127820524137</v>
+        <v>0.02144792046223643</v>
       </c>
       <c r="D4">
-        <v>0.1426702232784294</v>
+        <v>0.1578141065464393</v>
       </c>
       <c r="E4">
-        <v>0.1352091242570275</v>
+        <v>0.1541827072036064</v>
       </c>
       <c r="F4">
-        <v>0.8611665733820928</v>
+        <v>1.65055622308968</v>
       </c>
       <c r="G4">
-        <v>0.5619486165634413</v>
+        <v>1.016034338535931</v>
       </c>
       <c r="H4">
-        <v>0.4190220701676566</v>
+        <v>1.037016044151045</v>
       </c>
       <c r="I4">
-        <v>0.4730266883729328</v>
+        <v>0.8778641947310817</v>
       </c>
       <c r="J4">
-        <v>0.1605413411988579</v>
+        <v>0.1866880443344598</v>
       </c>
       <c r="K4">
-        <v>4.10681158402258</v>
+        <v>1.71928890023662</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03761072699670365</v>
+        <v>0.0210394588206313</v>
       </c>
       <c r="D5">
-        <v>0.1375569702287578</v>
+        <v>0.1564246357730497</v>
       </c>
       <c r="E5">
-        <v>0.1307128639849289</v>
+        <v>0.1532028087965358</v>
       </c>
       <c r="F5">
-        <v>0.8498810004016377</v>
+        <v>1.653353566480618</v>
       </c>
       <c r="G5">
-        <v>0.5549701945052021</v>
+        <v>1.018641255609452</v>
       </c>
       <c r="H5">
-        <v>0.4187839015223176</v>
+        <v>1.040249929316133</v>
       </c>
       <c r="I5">
-        <v>0.4669264928045536</v>
+        <v>0.8796753011676657</v>
       </c>
       <c r="J5">
-        <v>0.1554855185126769</v>
+        <v>0.1857925700123886</v>
       </c>
       <c r="K5">
-        <v>3.935409741256365</v>
+        <v>1.667322366121539</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03741307257156734</v>
+        <v>0.02097155273430218</v>
       </c>
       <c r="D6">
-        <v>0.1367089719998802</v>
+        <v>0.156194415340849</v>
       </c>
       <c r="E6">
-        <v>0.1299686718685642</v>
+        <v>0.153041201459633</v>
       </c>
       <c r="F6">
-        <v>0.8480516195723027</v>
+        <v>1.653838372387952</v>
       </c>
       <c r="G6">
-        <v>0.5538504195297236</v>
+        <v>1.019089928861604</v>
       </c>
       <c r="H6">
-        <v>0.418766510035482</v>
+        <v>1.040798058396774</v>
       </c>
       <c r="I6">
-        <v>0.4659416057259165</v>
+        <v>0.8799881397919478</v>
       </c>
       <c r="J6">
-        <v>0.1546504770414643</v>
+        <v>0.1856457358427193</v>
       </c>
       <c r="K6">
-        <v>3.906970267280485</v>
+        <v>1.658693791336759</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03878521923029155</v>
+        <v>0.02144241727214791</v>
       </c>
       <c r="D7">
-        <v>0.1426011916054648</v>
+        <v>0.1577953341850105</v>
       </c>
       <c r="E7">
-        <v>0.1351483217528084</v>
+        <v>0.154169417941258</v>
       </c>
       <c r="F7">
-        <v>0.8610113478782466</v>
+        <v>1.650592586892728</v>
       </c>
       <c r="G7">
-        <v>0.5618518565976132</v>
+        <v>1.016068436585698</v>
       </c>
       <c r="H7">
-        <v>0.4190173577499223</v>
+        <v>1.037058910062512</v>
       </c>
       <c r="I7">
-        <v>0.4729425158894287</v>
+        <v>0.8778878079185972</v>
       </c>
       <c r="J7">
-        <v>0.1604728517614049</v>
+        <v>0.1866758429997688</v>
       </c>
       <c r="K7">
-        <v>4.104498478783739</v>
+        <v>1.718588033891535</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04484982319777941</v>
+        <v>0.02350827939955025</v>
       </c>
       <c r="D8">
-        <v>0.1687770713679129</v>
+        <v>0.164931936510115</v>
       </c>
       <c r="E8">
-        <v>0.1583876355042264</v>
+        <v>0.159308427633654</v>
       </c>
       <c r="F8">
-        <v>0.9250795881111458</v>
+        <v>1.639228944477509</v>
       </c>
       <c r="G8">
-        <v>0.6031955939413649</v>
+        <v>1.005039765874429</v>
       </c>
       <c r="H8">
-        <v>0.4235134081982608</v>
+        <v>1.022181749207434</v>
       </c>
       <c r="I8">
-        <v>0.5081694935286905</v>
+        <v>0.8703843886714608</v>
       </c>
       <c r="J8">
-        <v>0.1868710723399616</v>
+        <v>0.19149222483518</v>
       </c>
       <c r="K8">
-        <v>4.980053836169475</v>
+        <v>1.982937386471519</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05682546613294193</v>
+        <v>0.02751539173902273</v>
       </c>
       <c r="D9">
-        <v>0.2209695862438394</v>
+        <v>0.1791811814171922</v>
       </c>
       <c r="E9">
-        <v>0.2056820645567896</v>
+        <v>0.1699630535359162</v>
       </c>
       <c r="F9">
-        <v>1.079667910645753</v>
+        <v>1.627652786528472</v>
       </c>
       <c r="G9">
-        <v>0.7098501063549492</v>
+        <v>0.9917770574836879</v>
       </c>
       <c r="H9">
-        <v>0.4462912351650772</v>
+        <v>0.9988688530028043</v>
       </c>
       <c r="I9">
-        <v>0.5955368352948724</v>
+        <v>0.8620649339170043</v>
       </c>
       <c r="J9">
-        <v>0.2417575553287747</v>
+        <v>0.2019166465732383</v>
       </c>
       <c r="K9">
-        <v>6.719210902745033</v>
+        <v>2.501409148267783</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06572766293423626</v>
+        <v>0.03043204459057591</v>
       </c>
       <c r="D10">
-        <v>0.260093052634943</v>
+        <v>0.189802579072861</v>
       </c>
       <c r="E10">
-        <v>0.2418492731093167</v>
+        <v>0.1781446012021632</v>
       </c>
       <c r="F10">
-        <v>1.215352552424037</v>
+        <v>1.625745525089997</v>
       </c>
       <c r="G10">
-        <v>0.8079070226879992</v>
+        <v>0.9872096164910857</v>
       </c>
       <c r="H10">
-        <v>0.4734156730821582</v>
+        <v>0.9853406628631518</v>
       </c>
       <c r="I10">
-        <v>0.6737355899025701</v>
+        <v>0.8599004281669593</v>
       </c>
       <c r="J10">
-        <v>0.2846060688361405</v>
+        <v>0.2101800547291504</v>
       </c>
       <c r="K10">
-        <v>8.019324131165831</v>
+        <v>2.882352775953962</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.06981353905486998</v>
+        <v>0.03175288002049115</v>
       </c>
       <c r="D11">
-        <v>0.2781236585628051</v>
+        <v>0.1946671942227312</v>
       </c>
       <c r="E11">
-        <v>0.2587038158259105</v>
+        <v>0.18194385639503</v>
       </c>
       <c r="F11">
-        <v>1.282997406618904</v>
+        <v>1.626325773391898</v>
       </c>
       <c r="G11">
-        <v>0.8578222011105225</v>
+        <v>0.9862726151528136</v>
       </c>
       <c r="H11">
-        <v>0.4884827662696409</v>
+        <v>0.9799738081788405</v>
       </c>
       <c r="I11">
-        <v>0.7130694318776563</v>
+        <v>0.8597837055919797</v>
       </c>
       <c r="J11">
-        <v>0.3048030098211996</v>
+        <v>0.2140722647758508</v>
       </c>
       <c r="K11">
-        <v>8.617859469847645</v>
+        <v>3.05565635819238</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07136722635242165</v>
+        <v>0.03225217591995033</v>
       </c>
       <c r="D12">
-        <v>0.2849907931779967</v>
+        <v>0.1965139665572337</v>
       </c>
       <c r="E12">
-        <v>0.2651526446553589</v>
+        <v>0.1833936881828677</v>
       </c>
       <c r="F12">
-        <v>1.30956940914993</v>
+        <v>1.626754908650383</v>
       </c>
       <c r="G12">
-        <v>0.8775841782127145</v>
+        <v>0.9860831862395543</v>
       </c>
       <c r="H12">
-        <v>0.4946250736840341</v>
+        <v>0.9780551964002058</v>
       </c>
       <c r="I12">
-        <v>0.728572443865275</v>
+        <v>0.8598651689140695</v>
       </c>
       <c r="J12">
-        <v>0.3125670801100142</v>
+        <v>0.2155654057072383</v>
       </c>
       <c r="K12">
-        <v>8.845738564377598</v>
+        <v>3.121282410437914</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0710323035210223</v>
+        <v>0.03214468284807026</v>
       </c>
       <c r="D13">
-        <v>0.2835099840247466</v>
+        <v>0.196116025634538</v>
       </c>
       <c r="E13">
-        <v>0.2637606747998049</v>
+        <v>0.1830809456276867</v>
       </c>
       <c r="F13">
-        <v>1.303802321817386</v>
+        <v>1.626653153969812</v>
       </c>
       <c r="G13">
-        <v>0.873288167240176</v>
+        <v>0.9861166056288937</v>
       </c>
       <c r="H13">
-        <v>0.4932820328280059</v>
+        <v>0.9784633389128743</v>
       </c>
       <c r="I13">
-        <v>0.7252053924494533</v>
+        <v>0.8598420217217537</v>
       </c>
       <c r="J13">
-        <v>0.3108895433311147</v>
+        <v>0.2152429735465944</v>
       </c>
       <c r="K13">
-        <v>8.796602655933157</v>
+        <v>3.107148704346287</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.06994122482858245</v>
+        <v>0.03179397504840153</v>
       </c>
       <c r="D14">
-        <v>0.2786877979589235</v>
+        <v>0.1948190365951774</v>
       </c>
       <c r="E14">
-        <v>0.2592329819420911</v>
+        <v>0.1820629117233565</v>
       </c>
       <c r="F14">
-        <v>1.285163691570617</v>
+        <v>1.626356874839857</v>
       </c>
       <c r="G14">
-        <v>0.8594301981245422</v>
+        <v>0.9862537082253056</v>
       </c>
       <c r="H14">
-        <v>0.4889790725293608</v>
+        <v>0.9798136812329545</v>
       </c>
       <c r="I14">
-        <v>0.714332273417817</v>
+        <v>0.8597878842214186</v>
       </c>
       <c r="J14">
-        <v>0.3054393519729928</v>
+        <v>0.2141947200965859</v>
       </c>
       <c r="K14">
-        <v>8.636581379200209</v>
+        <v>3.06105546788325</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.06927378766084757</v>
+        <v>0.03157904181193771</v>
       </c>
       <c r="D15">
-        <v>0.2757393757019173</v>
+        <v>0.1940251963127224</v>
       </c>
       <c r="E15">
-        <v>0.2564685548698833</v>
+        <v>0.1814407869251227</v>
       </c>
       <c r="F15">
-        <v>1.273874851990172</v>
+        <v>1.626202702264905</v>
       </c>
       <c r="G15">
-        <v>0.8510568714763167</v>
+        <v>0.9863592668602337</v>
       </c>
       <c r="H15">
-        <v>0.4864016638227184</v>
+        <v>0.9806556269148956</v>
       </c>
       <c r="I15">
-        <v>0.707753498244557</v>
+        <v>0.8597711140470281</v>
       </c>
       <c r="J15">
-        <v>0.3021165094372833</v>
+        <v>0.21355514389316</v>
       </c>
       <c r="K15">
-        <v>8.538729954394569</v>
+        <v>3.032821945788612</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06546147348311848</v>
+        <v>0.03034560330341662</v>
       </c>
       <c r="D16">
-        <v>0.2589198839569775</v>
+        <v>0.1894853198465256</v>
       </c>
       <c r="E16">
-        <v>0.2407565892254411</v>
+        <v>0.1778978691538029</v>
       </c>
       <c r="F16">
-        <v>1.211059658716309</v>
+        <v>1.625736842323036</v>
       </c>
       <c r="G16">
-        <v>0.8047598047732265</v>
+        <v>0.9872939222638877</v>
       </c>
       <c r="H16">
-        <v>0.4724895855383409</v>
+        <v>0.9857072825976587</v>
       </c>
       <c r="I16">
-        <v>0.6712462972603674</v>
+        <v>0.8599255943130046</v>
       </c>
       <c r="J16">
-        <v>0.2833015444237503</v>
+        <v>0.2099283773250846</v>
       </c>
       <c r="K16">
-        <v>7.980368443616669</v>
+        <v>2.87102703774184</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06313286199572588</v>
+        <v>0.02958738796201033</v>
       </c>
       <c r="D17">
-        <v>0.2486653233552403</v>
+        <v>0.1867086177642676</v>
       </c>
       <c r="E17">
-        <v>0.2312265644638387</v>
+        <v>0.1757442362398862</v>
       </c>
       <c r="F17">
-        <v>1.174112224453296</v>
+        <v>1.625822743191321</v>
       </c>
       <c r="G17">
-        <v>0.7777832985969724</v>
+        <v>0.9881604393554682</v>
       </c>
       <c r="H17">
-        <v>0.4646837935047898</v>
+        <v>0.9890082843149202</v>
       </c>
       <c r="I17">
-        <v>0.6498591828487363</v>
+        <v>0.860243267890425</v>
       </c>
       <c r="J17">
-        <v>0.2719495858547845</v>
+        <v>0.2077376452967172</v>
       </c>
       <c r="K17">
-        <v>7.639790751588578</v>
+        <v>2.771772503853356</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06179683301212435</v>
+        <v>0.02915072217712122</v>
       </c>
       <c r="D18">
-        <v>0.2427887327226443</v>
+        <v>0.1851146324726898</v>
       </c>
       <c r="E18">
-        <v>0.2257824085153786</v>
+        <v>0.1745128112387206</v>
       </c>
       <c r="F18">
-        <v>1.153411449763169</v>
+        <v>1.626008359249667</v>
       </c>
       <c r="G18">
-        <v>0.7627604045386818</v>
+        <v>0.9887661287449845</v>
       </c>
       <c r="H18">
-        <v>0.4604479509977892</v>
+        <v>0.9909809967403334</v>
       </c>
       <c r="I18">
-        <v>0.6379074250054799</v>
+        <v>0.8605076268608727</v>
       </c>
       <c r="J18">
-        <v>0.2654856302082891</v>
+        <v>0.20649012031474</v>
       </c>
       <c r="K18">
-        <v>7.444554912539843</v>
+        <v>2.714685002091528</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06134501225261602</v>
+        <v>0.02900277896498693</v>
       </c>
       <c r="D19">
-        <v>0.2408025563927509</v>
+        <v>0.1845754714268679</v>
       </c>
       <c r="E19">
-        <v>0.2239452640025874</v>
+        <v>0.1740971235126736</v>
       </c>
       <c r="F19">
-        <v>1.146494045331565</v>
+        <v>1.626094562863983</v>
       </c>
       <c r="G19">
-        <v>0.7577558532749151</v>
+        <v>0.9889895909841044</v>
       </c>
       <c r="H19">
-        <v>0.4590560901511225</v>
+        <v>0.9916616284591271</v>
       </c>
       <c r="I19">
-        <v>0.6339188665149749</v>
+        <v>0.8606111301817165</v>
       </c>
       <c r="J19">
-        <v>0.2633078590102258</v>
+        <v>0.2060698781579617</v>
       </c>
       <c r="K19">
-        <v>7.378558110676977</v>
+        <v>2.695356394950068</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06338039378355376</v>
+        <v>0.02966815941034184</v>
       </c>
       <c r="D20">
-        <v>0.2497546672259574</v>
+        <v>0.1870038821629976</v>
       </c>
       <c r="E20">
-        <v>0.2322371361237288</v>
+        <v>0.1759727398787803</v>
       </c>
       <c r="F20">
-        <v>1.177987652955892</v>
+        <v>1.625799493188069</v>
       </c>
       <c r="G20">
-        <v>0.7806032738274808</v>
+        <v>0.988057083076157</v>
       </c>
       <c r="H20">
-        <v>0.4654881553588979</v>
+        <v>0.9886492181395852</v>
       </c>
       <c r="I20">
-        <v>0.6520992367870306</v>
+        <v>0.8602009952253979</v>
       </c>
       <c r="J20">
-        <v>0.2731511531790574</v>
+        <v>0.20796955533622</v>
       </c>
       <c r="K20">
-        <v>7.675976581450755</v>
+        <v>2.782338219415067</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07026151525926139</v>
+        <v>0.03189701034116865</v>
       </c>
       <c r="D21">
-        <v>0.2801030738606443</v>
+        <v>0.1951998682025362</v>
       </c>
       <c r="E21">
-        <v>0.2605610004142704</v>
+        <v>0.1823616306984874</v>
       </c>
       <c r="F21">
-        <v>1.290611459242143</v>
+        <v>1.626438206299696</v>
       </c>
       <c r="G21">
-        <v>0.8634764487231052</v>
+        <v>0.9862089383320551</v>
       </c>
       <c r="H21">
-        <v>0.4902307245559996</v>
+        <v>0.9794139631628127</v>
       </c>
       <c r="I21">
-        <v>0.7175088932066416</v>
+        <v>0.8598003683952413</v>
       </c>
       <c r="J21">
-        <v>0.3070369348898936</v>
+        <v>0.2145020944292213</v>
       </c>
       <c r="K21">
-        <v>8.683548467090247</v>
+        <v>3.074594189258107</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.07479703483429034</v>
+        <v>0.03334858042740052</v>
       </c>
       <c r="D22">
-        <v>0.300169961455552</v>
+        <v>0.200583475635483</v>
       </c>
       <c r="E22">
-        <v>0.2794638858934846</v>
+        <v>0.1866020530123151</v>
       </c>
       <c r="F22">
-        <v>1.369849506563455</v>
+        <v>1.628076794450507</v>
       </c>
       <c r="G22">
-        <v>0.9227057360174342</v>
+        <v>0.9859657381291953</v>
       </c>
       <c r="H22">
-        <v>0.5089713726638081</v>
+        <v>0.9740411539088853</v>
       </c>
       <c r="I22">
-        <v>0.7638394682136749</v>
+        <v>0.8602713992908946</v>
       </c>
       <c r="J22">
-        <v>0.3298669440166151</v>
+        <v>0.2188837107627961</v>
       </c>
       <c r="K22">
-        <v>9.34931758013829</v>
+        <v>3.265598117200284</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07237238696843917</v>
+        <v>0.03257432379446357</v>
       </c>
       <c r="D23">
-        <v>0.2894365260683713</v>
+        <v>0.197707693616664</v>
       </c>
       <c r="E23">
-        <v>0.2693361369111571</v>
+        <v>0.1843329192172405</v>
       </c>
       <c r="F23">
-        <v>1.327005544438904</v>
+        <v>1.627090113927878</v>
       </c>
       <c r="G23">
-        <v>0.8905954206551598</v>
+        <v>0.9860068228182826</v>
       </c>
       <c r="H23">
-        <v>0.4987179574739855</v>
+        <v>0.9768478951936999</v>
       </c>
       <c r="I23">
-        <v>0.7387599847824546</v>
+        <v>0.8599526601381626</v>
       </c>
       <c r="J23">
-        <v>0.3176143312285404</v>
+        <v>0.2165348578975426</v>
       </c>
       <c r="K23">
-        <v>8.993245725359486</v>
+        <v>3.163656493406904</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06326847627991583</v>
+        <v>0.0296316449968046</v>
       </c>
       <c r="D24">
-        <v>0.2492621164459052</v>
+        <v>0.1868703857168583</v>
       </c>
       <c r="E24">
-        <v>0.2317801489744227</v>
+        <v>0.1758694124304441</v>
       </c>
       <c r="F24">
-        <v>1.176233895049236</v>
+        <v>1.625809580260849</v>
       </c>
       <c r="G24">
-        <v>0.7793268556203685</v>
+        <v>0.9881034756478329</v>
       </c>
       <c r="H24">
-        <v>0.465123722325103</v>
+        <v>0.9888113186162144</v>
       </c>
       <c r="I24">
-        <v>0.6510854419792054</v>
+        <v>0.8602198521992221</v>
       </c>
       <c r="J24">
-        <v>0.2726077311954356</v>
+        <v>0.2078646715750523</v>
       </c>
       <c r="K24">
-        <v>7.659615217458168</v>
+        <v>2.777561536370797</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05357171290311413</v>
+        <v>0.02643613307540704</v>
       </c>
       <c r="D25">
-        <v>0.2067333248552501</v>
+        <v>0.175299425842951</v>
       </c>
       <c r="E25">
-        <v>0.1926672342238547</v>
+        <v>0.1670187357216406</v>
       </c>
       <c r="F25">
-        <v>1.034313797095962</v>
+        <v>1.629630877107573</v>
       </c>
       <c r="G25">
-        <v>0.6778590461867537</v>
+        <v>0.9944615000302406</v>
       </c>
       <c r="H25">
-        <v>0.4384516840356838</v>
+        <v>1.004545382183451</v>
       </c>
       <c r="I25">
-        <v>0.5696650438852444</v>
+        <v>0.8636258686906473</v>
       </c>
       <c r="J25">
-        <v>0.226514801798416</v>
+        <v>0.1989909355026356</v>
       </c>
       <c r="K25">
-        <v>6.245489020832224</v>
+        <v>2.36114304678182</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_214/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_214/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02406506557682775</v>
+        <v>0.04649686527969266</v>
       </c>
       <c r="D2">
-        <v>0.1668829158416827</v>
+        <v>0.1759192233115527</v>
       </c>
       <c r="E2">
-        <v>0.1607398286185102</v>
+        <v>0.1647883531330692</v>
       </c>
       <c r="F2">
-        <v>1.636872026552723</v>
+        <v>0.9442471654627127</v>
       </c>
       <c r="G2">
-        <v>1.002614734140138</v>
+        <v>0.615989937237984</v>
       </c>
       <c r="H2">
-        <v>1.0185464478825</v>
+        <v>0.4256129060701141</v>
       </c>
       <c r="I2">
-        <v>0.8687822641251515</v>
+        <v>0.5188549690715547</v>
       </c>
       <c r="J2">
-        <v>0.1928632368882006</v>
+        <v>0.1942137762108018</v>
       </c>
       <c r="K2">
-        <v>2.054569687855121</v>
+        <v>5.21849032578416</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02244693183169488</v>
+        <v>0.04172501300185871</v>
       </c>
       <c r="D3">
-        <v>0.1612439996455777</v>
+        <v>0.1552642869477694</v>
       </c>
       <c r="E3">
-        <v>0.1566321673715727</v>
+        <v>0.1463460195272752</v>
       </c>
       <c r="F3">
-        <v>1.644518109295433</v>
+        <v>0.890739429872383</v>
       </c>
       <c r="G3">
-        <v>1.010280372564281</v>
+        <v>0.5807193945803704</v>
       </c>
       <c r="H3">
-        <v>1.0295335993668</v>
+        <v>0.4205351705456764</v>
       </c>
       <c r="I3">
-        <v>0.8739126022889891</v>
+        <v>0.4891790411353725</v>
       </c>
       <c r="J3">
-        <v>0.1889610989209913</v>
+        <v>0.1731390812874452</v>
       </c>
       <c r="K3">
-        <v>1.84682674065283</v>
+        <v>4.528429094579963</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02144792046223643</v>
+        <v>0.03880127820523427</v>
       </c>
       <c r="D4">
-        <v>0.1578141065464393</v>
+        <v>0.1426702232784436</v>
       </c>
       <c r="E4">
-        <v>0.1541827072036064</v>
+        <v>0.1352091242570594</v>
       </c>
       <c r="F4">
-        <v>1.65055622308968</v>
+        <v>0.8611665733820928</v>
       </c>
       <c r="G4">
-        <v>1.016034338535931</v>
+        <v>0.5619486165634413</v>
       </c>
       <c r="H4">
-        <v>1.037016044151045</v>
+        <v>0.4190220701677561</v>
       </c>
       <c r="I4">
-        <v>0.8778641947310817</v>
+        <v>0.4730266883729399</v>
       </c>
       <c r="J4">
-        <v>0.1866880443344598</v>
+        <v>0.1605413411988295</v>
       </c>
       <c r="K4">
-        <v>1.71928890023662</v>
+        <v>4.106811584022637</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0210394588206313</v>
+        <v>0.03761072699671075</v>
       </c>
       <c r="D5">
-        <v>0.1564246357730497</v>
+        <v>0.1375569702289283</v>
       </c>
       <c r="E5">
-        <v>0.1532028087965358</v>
+        <v>0.1307128639849111</v>
       </c>
       <c r="F5">
-        <v>1.653353566480618</v>
+        <v>0.8498810004016448</v>
       </c>
       <c r="G5">
-        <v>1.018641255609452</v>
+        <v>0.5549701945052163</v>
       </c>
       <c r="H5">
-        <v>1.040249929316133</v>
+        <v>0.4187839015224313</v>
       </c>
       <c r="I5">
-        <v>0.8796753011676657</v>
+        <v>0.4669264928045536</v>
       </c>
       <c r="J5">
-        <v>0.1857925700123886</v>
+        <v>0.1554855185125916</v>
       </c>
       <c r="K5">
-        <v>1.667322366121539</v>
+        <v>3.935409741256478</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02097155273430218</v>
+        <v>0.03741307257157445</v>
       </c>
       <c r="D6">
-        <v>0.156194415340849</v>
+        <v>0.1367089719998091</v>
       </c>
       <c r="E6">
-        <v>0.153041201459633</v>
+        <v>0.1299686718686033</v>
       </c>
       <c r="F6">
-        <v>1.653838372387952</v>
+        <v>0.8480516195723382</v>
       </c>
       <c r="G6">
-        <v>1.019089928861604</v>
+        <v>0.5538504195297094</v>
       </c>
       <c r="H6">
-        <v>1.040798058396774</v>
+        <v>0.4187665100354963</v>
       </c>
       <c r="I6">
-        <v>0.8799881397919478</v>
+        <v>0.4659416057259236</v>
       </c>
       <c r="J6">
-        <v>0.1856457358427193</v>
+        <v>0.1546504770413861</v>
       </c>
       <c r="K6">
-        <v>1.658693791336759</v>
+        <v>3.906970267280599</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02144241727214791</v>
+        <v>0.03878521923063261</v>
       </c>
       <c r="D7">
-        <v>0.1577953341850105</v>
+        <v>0.1426011916054932</v>
       </c>
       <c r="E7">
-        <v>0.154169417941258</v>
+        <v>0.1351483217528084</v>
       </c>
       <c r="F7">
-        <v>1.650592586892728</v>
+        <v>0.8610113478782182</v>
       </c>
       <c r="G7">
-        <v>1.016068436585698</v>
+        <v>0.5618518565976132</v>
       </c>
       <c r="H7">
-        <v>1.037058910062512</v>
+        <v>0.4190173577499081</v>
       </c>
       <c r="I7">
-        <v>0.8778878079185972</v>
+        <v>0.4729425158894287</v>
       </c>
       <c r="J7">
-        <v>0.1866758429997688</v>
+        <v>0.1604728517613765</v>
       </c>
       <c r="K7">
-        <v>1.718588033891535</v>
+        <v>4.104498478783796</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02350827939955025</v>
+        <v>0.044849823197886</v>
       </c>
       <c r="D8">
-        <v>0.164931936510115</v>
+        <v>0.1687770713679839</v>
       </c>
       <c r="E8">
-        <v>0.159308427633654</v>
+        <v>0.1583876355042406</v>
       </c>
       <c r="F8">
-        <v>1.639228944477509</v>
+        <v>0.9250795881111316</v>
       </c>
       <c r="G8">
-        <v>1.005039765874429</v>
+        <v>0.6031955939414502</v>
       </c>
       <c r="H8">
-        <v>1.022181749207434</v>
+        <v>0.423513408198275</v>
       </c>
       <c r="I8">
-        <v>0.8703843886714608</v>
+        <v>0.5081694935286976</v>
       </c>
       <c r="J8">
-        <v>0.19149222483518</v>
+        <v>0.1868710723399118</v>
       </c>
       <c r="K8">
-        <v>1.982937386471519</v>
+        <v>4.980053836169361</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02751539173902273</v>
+        <v>0.05682546613270745</v>
       </c>
       <c r="D9">
-        <v>0.1791811814171922</v>
+        <v>0.2209695862438394</v>
       </c>
       <c r="E9">
-        <v>0.1699630535359162</v>
+        <v>0.2056820645567825</v>
       </c>
       <c r="F9">
-        <v>1.627652786528472</v>
+        <v>1.079667910645767</v>
       </c>
       <c r="G9">
-        <v>0.9917770574836879</v>
+        <v>0.7098501063550344</v>
       </c>
       <c r="H9">
-        <v>0.9988688530028043</v>
+        <v>0.446291235165063</v>
       </c>
       <c r="I9">
-        <v>0.8620649339170043</v>
+        <v>0.5955368352948796</v>
       </c>
       <c r="J9">
-        <v>0.2019166465732383</v>
+        <v>0.2417575553288032</v>
       </c>
       <c r="K9">
-        <v>2.501409148267783</v>
+        <v>6.719210902745033</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03043204459057591</v>
+        <v>0.06572766293450627</v>
       </c>
       <c r="D10">
-        <v>0.189802579072861</v>
+        <v>0.2600930526348151</v>
       </c>
       <c r="E10">
-        <v>0.1781446012021632</v>
+        <v>0.241849273109338</v>
       </c>
       <c r="F10">
-        <v>1.625745525089997</v>
+        <v>1.215352552424051</v>
       </c>
       <c r="G10">
-        <v>0.9872096164910857</v>
+        <v>0.807907022688056</v>
       </c>
       <c r="H10">
-        <v>0.9853406628631518</v>
+        <v>0.4734156730821724</v>
       </c>
       <c r="I10">
-        <v>0.8599004281669593</v>
+        <v>0.6737355899025772</v>
       </c>
       <c r="J10">
-        <v>0.2101800547291504</v>
+        <v>0.2846060688361689</v>
       </c>
       <c r="K10">
-        <v>2.882352775953962</v>
+        <v>8.019324131165831</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03175288002049115</v>
+        <v>0.06981353905510446</v>
       </c>
       <c r="D11">
-        <v>0.1946671942227312</v>
+        <v>0.2781236585625777</v>
       </c>
       <c r="E11">
-        <v>0.18194385639503</v>
+        <v>0.2587038158258963</v>
       </c>
       <c r="F11">
-        <v>1.626325773391898</v>
+        <v>1.28299740661889</v>
       </c>
       <c r="G11">
-        <v>0.9862726151528136</v>
+        <v>0.8578222011104941</v>
       </c>
       <c r="H11">
-        <v>0.9799738081788405</v>
+        <v>0.4884827662696409</v>
       </c>
       <c r="I11">
-        <v>0.8597837055919797</v>
+        <v>0.7130694318776492</v>
       </c>
       <c r="J11">
-        <v>0.2140722647758508</v>
+        <v>0.3048030098211427</v>
       </c>
       <c r="K11">
-        <v>3.05565635819238</v>
+        <v>8.617859469847645</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03225217591995033</v>
+        <v>0.07136722635241455</v>
       </c>
       <c r="D12">
-        <v>0.1965139665572337</v>
+        <v>0.2849907931780109</v>
       </c>
       <c r="E12">
-        <v>0.1833936881828677</v>
+        <v>0.2651526446553802</v>
       </c>
       <c r="F12">
-        <v>1.626754908650383</v>
+        <v>1.309569409149944</v>
       </c>
       <c r="G12">
-        <v>0.9860831862395543</v>
+        <v>0.8775841782127287</v>
       </c>
       <c r="H12">
-        <v>0.9780551964002058</v>
+        <v>0.494625073684162</v>
       </c>
       <c r="I12">
-        <v>0.8598651689140695</v>
+        <v>0.7285724438652821</v>
       </c>
       <c r="J12">
-        <v>0.2155654057072383</v>
+        <v>0.3125670801100995</v>
       </c>
       <c r="K12">
-        <v>3.121282410437914</v>
+        <v>8.845738564377484</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03214468284807026</v>
+        <v>0.07103230352100809</v>
       </c>
       <c r="D13">
-        <v>0.196116025634538</v>
+        <v>0.2835099840246045</v>
       </c>
       <c r="E13">
-        <v>0.1830809456276867</v>
+        <v>0.2637606747997836</v>
       </c>
       <c r="F13">
-        <v>1.626653153969812</v>
+        <v>1.303802321817386</v>
       </c>
       <c r="G13">
-        <v>0.9861166056288937</v>
+        <v>0.8732881672401334</v>
       </c>
       <c r="H13">
-        <v>0.9784633389128743</v>
+        <v>0.4932820328280059</v>
       </c>
       <c r="I13">
-        <v>0.8598420217217537</v>
+        <v>0.7252053924494533</v>
       </c>
       <c r="J13">
-        <v>0.2152429735465944</v>
+        <v>0.3108895433311005</v>
       </c>
       <c r="K13">
-        <v>3.107148704346287</v>
+        <v>8.796602655933157</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03179397504840153</v>
+        <v>0.06994122482844034</v>
       </c>
       <c r="D14">
-        <v>0.1948190365951774</v>
+        <v>0.2786877979589377</v>
       </c>
       <c r="E14">
-        <v>0.1820629117233565</v>
+        <v>0.2592329819421053</v>
       </c>
       <c r="F14">
-        <v>1.626356874839857</v>
+        <v>1.285163691570617</v>
       </c>
       <c r="G14">
-        <v>0.9862537082253056</v>
+        <v>0.8594301981245991</v>
       </c>
       <c r="H14">
-        <v>0.9798136812329545</v>
+        <v>0.4889790725292613</v>
       </c>
       <c r="I14">
-        <v>0.8597878842214186</v>
+        <v>0.714332273417817</v>
       </c>
       <c r="J14">
-        <v>0.2141947200965859</v>
+        <v>0.3054393519730354</v>
       </c>
       <c r="K14">
-        <v>3.06105546788325</v>
+        <v>8.636581379200152</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03157904181193771</v>
+        <v>0.06927378766109626</v>
       </c>
       <c r="D15">
-        <v>0.1940251963127224</v>
+        <v>0.2757393757018747</v>
       </c>
       <c r="E15">
-        <v>0.1814407869251227</v>
+        <v>0.2564685548698762</v>
       </c>
       <c r="F15">
-        <v>1.626202702264905</v>
+        <v>1.273874851990172</v>
       </c>
       <c r="G15">
-        <v>0.9863592668602337</v>
+        <v>0.8510568714763167</v>
       </c>
       <c r="H15">
-        <v>0.9806556269148956</v>
+        <v>0.4864016638228321</v>
       </c>
       <c r="I15">
-        <v>0.8597711140470281</v>
+        <v>0.707753498244557</v>
       </c>
       <c r="J15">
-        <v>0.21355514389316</v>
+        <v>0.3021165094373544</v>
       </c>
       <c r="K15">
-        <v>3.032821945788612</v>
+        <v>8.538729954394739</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03034560330341662</v>
+        <v>0.06546147348298348</v>
       </c>
       <c r="D16">
-        <v>0.1894853198465256</v>
+        <v>0.2589198839569065</v>
       </c>
       <c r="E16">
-        <v>0.1778978691538029</v>
+        <v>0.240756589225434</v>
       </c>
       <c r="F16">
-        <v>1.625736842323036</v>
+        <v>1.211059658716309</v>
       </c>
       <c r="G16">
-        <v>0.9872939222638877</v>
+        <v>0.8047598047731697</v>
       </c>
       <c r="H16">
-        <v>0.9857072825976587</v>
+        <v>0.4724895855384688</v>
       </c>
       <c r="I16">
-        <v>0.8599255943130046</v>
+        <v>0.6712462972603603</v>
       </c>
       <c r="J16">
-        <v>0.2099283773250846</v>
+        <v>0.2833015444237788</v>
       </c>
       <c r="K16">
-        <v>2.87102703774184</v>
+        <v>7.980368443616669</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02958738796201033</v>
+        <v>0.06313286199573298</v>
       </c>
       <c r="D17">
-        <v>0.1867086177642676</v>
+        <v>0.2486653233554819</v>
       </c>
       <c r="E17">
-        <v>0.1757442362398862</v>
+        <v>0.2312265644638529</v>
       </c>
       <c r="F17">
-        <v>1.625822743191321</v>
+        <v>1.174112224453282</v>
       </c>
       <c r="G17">
-        <v>0.9881604393554682</v>
+        <v>0.7777832985969866</v>
       </c>
       <c r="H17">
-        <v>0.9890082843149202</v>
+        <v>0.4646837935047898</v>
       </c>
       <c r="I17">
-        <v>0.860243267890425</v>
+        <v>0.6498591828487292</v>
       </c>
       <c r="J17">
-        <v>0.2077376452967172</v>
+        <v>0.2719495858547702</v>
       </c>
       <c r="K17">
-        <v>2.771772503853356</v>
+        <v>7.639790751588748</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02915072217712122</v>
+        <v>0.06179683301212435</v>
       </c>
       <c r="D18">
-        <v>0.1851146324726898</v>
+        <v>0.2427887327228007</v>
       </c>
       <c r="E18">
-        <v>0.1745128112387206</v>
+        <v>0.2257824085153857</v>
       </c>
       <c r="F18">
-        <v>1.626008359249667</v>
+        <v>1.153411449763169</v>
       </c>
       <c r="G18">
-        <v>0.9887661287449845</v>
+        <v>0.7627604045386249</v>
       </c>
       <c r="H18">
-        <v>0.9909809967403334</v>
+        <v>0.4604479509978745</v>
       </c>
       <c r="I18">
-        <v>0.8605076268608727</v>
+        <v>0.637907425005487</v>
       </c>
       <c r="J18">
-        <v>0.20649012031474</v>
+        <v>0.2654856302082891</v>
       </c>
       <c r="K18">
-        <v>2.714685002091528</v>
+        <v>7.444554912539729</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02900277896498693</v>
+        <v>0.06134501225275102</v>
       </c>
       <c r="D19">
-        <v>0.1845754714268679</v>
+        <v>0.2408025563927367</v>
       </c>
       <c r="E19">
-        <v>0.1740971235126736</v>
+        <v>0.2239452640025661</v>
       </c>
       <c r="F19">
-        <v>1.626094562863983</v>
+        <v>1.146494045331551</v>
       </c>
       <c r="G19">
-        <v>0.9889895909841044</v>
+        <v>0.7577558532750146</v>
       </c>
       <c r="H19">
-        <v>0.9916616284591271</v>
+        <v>0.4590560901511225</v>
       </c>
       <c r="I19">
-        <v>0.8606111301817165</v>
+        <v>0.6339188665149891</v>
       </c>
       <c r="J19">
-        <v>0.2060698781579617</v>
+        <v>0.26330785901024</v>
       </c>
       <c r="K19">
-        <v>2.695356394950068</v>
+        <v>7.378558110677091</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02966815941034184</v>
+        <v>0.06338039378344718</v>
       </c>
       <c r="D20">
-        <v>0.1870038821629976</v>
+        <v>0.2497546672260569</v>
       </c>
       <c r="E20">
-        <v>0.1759727398787803</v>
+        <v>0.2322371361237288</v>
       </c>
       <c r="F20">
-        <v>1.625799493188069</v>
+        <v>1.177987652955892</v>
       </c>
       <c r="G20">
-        <v>0.988057083076157</v>
+        <v>0.7806032738275803</v>
       </c>
       <c r="H20">
-        <v>0.9886492181395852</v>
+        <v>0.4654881553589973</v>
       </c>
       <c r="I20">
-        <v>0.8602009952253979</v>
+        <v>0.6520992367870306</v>
       </c>
       <c r="J20">
-        <v>0.20796955533622</v>
+        <v>0.2731511531790005</v>
       </c>
       <c r="K20">
-        <v>2.782338219415067</v>
+        <v>7.675976581450755</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03189701034116865</v>
+        <v>0.07026151525912638</v>
       </c>
       <c r="D21">
-        <v>0.1951998682025362</v>
+        <v>0.2801030738610422</v>
       </c>
       <c r="E21">
-        <v>0.1823616306984874</v>
+        <v>0.2605610004142704</v>
       </c>
       <c r="F21">
-        <v>1.626438206299696</v>
+        <v>1.290611459242129</v>
       </c>
       <c r="G21">
-        <v>0.9862089383320551</v>
+        <v>0.8634764487230768</v>
       </c>
       <c r="H21">
-        <v>0.9794139631628127</v>
+        <v>0.490230724556028</v>
       </c>
       <c r="I21">
-        <v>0.8598003683952413</v>
+        <v>0.7175088932066274</v>
       </c>
       <c r="J21">
-        <v>0.2145020944292213</v>
+        <v>0.3070369348898936</v>
       </c>
       <c r="K21">
-        <v>3.074594189258107</v>
+        <v>8.683548467090361</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03334858042740052</v>
+        <v>0.07479703483430455</v>
       </c>
       <c r="D22">
-        <v>0.200583475635483</v>
+        <v>0.3001699614553814</v>
       </c>
       <c r="E22">
-        <v>0.1866020530123151</v>
+        <v>0.2794638858934633</v>
       </c>
       <c r="F22">
-        <v>1.628076794450507</v>
+        <v>1.36984950656344</v>
       </c>
       <c r="G22">
-        <v>0.9859657381291953</v>
+        <v>0.9227057360174626</v>
       </c>
       <c r="H22">
-        <v>0.9740411539088853</v>
+        <v>0.5089713726638223</v>
       </c>
       <c r="I22">
-        <v>0.8602713992908946</v>
+        <v>0.7638394682136749</v>
       </c>
       <c r="J22">
-        <v>0.2188837107627961</v>
+        <v>0.3298669440166293</v>
       </c>
       <c r="K22">
-        <v>3.265598117200284</v>
+        <v>9.349317580138177</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03257432379446357</v>
+        <v>0.07237238696858128</v>
       </c>
       <c r="D23">
-        <v>0.197707693616664</v>
+        <v>0.2894365260683713</v>
       </c>
       <c r="E23">
-        <v>0.1843329192172405</v>
+        <v>0.2693361369111429</v>
       </c>
       <c r="F23">
-        <v>1.627090113927878</v>
+        <v>1.327005544438919</v>
       </c>
       <c r="G23">
-        <v>0.9860068228182826</v>
+        <v>0.8905954206551456</v>
       </c>
       <c r="H23">
-        <v>0.9768478951936999</v>
+        <v>0.4987179574739997</v>
       </c>
       <c r="I23">
-        <v>0.8599526601381626</v>
+        <v>0.7387599847824475</v>
       </c>
       <c r="J23">
-        <v>0.2165348578975426</v>
+        <v>0.3176143312285262</v>
       </c>
       <c r="K23">
-        <v>3.163656493406904</v>
+        <v>8.993245725359543</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0296316449968046</v>
+        <v>0.06326847627977372</v>
       </c>
       <c r="D24">
-        <v>0.1868703857168583</v>
+        <v>0.2492621164460189</v>
       </c>
       <c r="E24">
-        <v>0.1758694124304441</v>
+        <v>0.2317801489744227</v>
       </c>
       <c r="F24">
-        <v>1.625809580260849</v>
+        <v>1.176233895049251</v>
       </c>
       <c r="G24">
-        <v>0.9881034756478329</v>
+        <v>0.7793268556203685</v>
       </c>
       <c r="H24">
-        <v>0.9888113186162144</v>
+        <v>0.4651237223251172</v>
       </c>
       <c r="I24">
-        <v>0.8602198521992221</v>
+        <v>0.6510854419792054</v>
       </c>
       <c r="J24">
-        <v>0.2078646715750523</v>
+        <v>0.2726077311955066</v>
       </c>
       <c r="K24">
-        <v>2.777561536370797</v>
+        <v>7.659615217458168</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02643613307540704</v>
+        <v>0.05357171290275176</v>
       </c>
       <c r="D25">
-        <v>0.175299425842951</v>
+        <v>0.206733324855108</v>
       </c>
       <c r="E25">
-        <v>0.1670187357216406</v>
+        <v>0.1926672342238405</v>
       </c>
       <c r="F25">
-        <v>1.629630877107573</v>
+        <v>1.034313797095948</v>
       </c>
       <c r="G25">
-        <v>0.9944615000302406</v>
+        <v>0.6778590461866969</v>
       </c>
       <c r="H25">
-        <v>1.004545382183451</v>
+        <v>0.4384516840356838</v>
       </c>
       <c r="I25">
-        <v>0.8636258686906473</v>
+        <v>0.5696650438852302</v>
       </c>
       <c r="J25">
-        <v>0.1989909355026356</v>
+        <v>0.226514801798487</v>
       </c>
       <c r="K25">
-        <v>2.36114304678182</v>
+        <v>6.245489020832167</v>
       </c>
       <c r="L25">
         <v>0</v>
